--- a/artfynd/A 20434-2022.xlsx
+++ b/artfynd/A 20434-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111336419</v>
+        <v>111336408</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>625180.6727454782</v>
+        <v>625192.9989858982</v>
       </c>
       <c r="R2" t="n">
-        <v>7209784.021863313</v>
+        <v>7209753.182408583</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111336398</v>
+        <v>111336410</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>625080.5973707421</v>
+        <v>625259.9138955096</v>
       </c>
       <c r="R3" t="n">
-        <v>7209863.719748351</v>
+        <v>7209755.994336623</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111336405</v>
+        <v>111336414</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>625163.9543035047</v>
+        <v>625154.518985283</v>
       </c>
       <c r="R4" t="n">
-        <v>7209747.724855823</v>
+        <v>7209790.550712772</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111336414</v>
+        <v>111336398</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>625154.518985283</v>
+        <v>625080.5973707421</v>
       </c>
       <c r="R5" t="n">
-        <v>7209790.550712772</v>
+        <v>7209863.719748351</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111336413</v>
+        <v>111336416</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>625162.5685057295</v>
+        <v>625105.0111505401</v>
       </c>
       <c r="R6" t="n">
-        <v>7209780.71893465</v>
+        <v>7209827.879692691</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111336407</v>
+        <v>111336412</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>625184.0874587877</v>
+        <v>625184.8249035137</v>
       </c>
       <c r="R7" t="n">
-        <v>7209753.231787121</v>
+        <v>7209765.975211025</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111336416</v>
+        <v>111336419</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>625105.0111505401</v>
+        <v>625180.6727454782</v>
       </c>
       <c r="R8" t="n">
-        <v>7209827.879692691</v>
+        <v>7209784.021863313</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111336403</v>
+        <v>111336404</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>625077.0981605061</v>
+        <v>625133.9709027896</v>
       </c>
       <c r="R10" t="n">
-        <v>7209815.690764531</v>
+        <v>7209754.516890368</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111336408</v>
+        <v>111336415</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>625192.9989858982</v>
+        <v>625148.1990682605</v>
       </c>
       <c r="R11" t="n">
-        <v>7209753.182408583</v>
+        <v>7209799.60762905</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111336412</v>
+        <v>111336409</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>625184.8249035137</v>
+        <v>625220.7730415409</v>
       </c>
       <c r="R12" t="n">
-        <v>7209765.975211025</v>
+        <v>7209758.586850428</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111336409</v>
+        <v>111336413</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>625220.7730415409</v>
+        <v>625162.5685057295</v>
       </c>
       <c r="R13" t="n">
-        <v>7209758.586850428</v>
+        <v>7209780.71893465</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111336404</v>
+        <v>111336405</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>625133.9709027896</v>
+        <v>625163.9543035047</v>
       </c>
       <c r="R14" t="n">
-        <v>7209754.516890368</v>
+        <v>7209747.724855823</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111336415</v>
+        <v>111336403</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>625148.1990682605</v>
+        <v>625077.0981605061</v>
       </c>
       <c r="R16" t="n">
-        <v>7209799.60762905</v>
+        <v>7209815.690764531</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111336410</v>
+        <v>111336407</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2479,10 +2479,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>625259.9138955096</v>
+        <v>625184.0874587877</v>
       </c>
       <c r="R17" t="n">
-        <v>7209755.994336623</v>
+        <v>7209753.231787121</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 20434-2022.xlsx
+++ b/artfynd/A 20434-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111336408</v>
+        <v>111336414</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>625192.9989858982</v>
+        <v>625154.518985283</v>
       </c>
       <c r="R2" t="n">
-        <v>7209753.182408583</v>
+        <v>7209790.550712772</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111336410</v>
+        <v>111336398</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>625259.9138955096</v>
+        <v>625080.5973707421</v>
       </c>
       <c r="R3" t="n">
-        <v>7209755.994336623</v>
+        <v>7209863.719748351</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111336414</v>
+        <v>111336417</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>625154.518985283</v>
+        <v>625114.8910281583</v>
       </c>
       <c r="R4" t="n">
-        <v>7209790.550712772</v>
+        <v>7209835.074288641</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111336398</v>
+        <v>111336408</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>625080.5973707421</v>
+        <v>625192.9989858982</v>
       </c>
       <c r="R5" t="n">
-        <v>7209863.719748351</v>
+        <v>7209753.182408583</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111336416</v>
+        <v>111336411</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>625105.0111505401</v>
+        <v>625220.1037653659</v>
       </c>
       <c r="R6" t="n">
-        <v>7209827.879692691</v>
+        <v>7209754.321236268</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111336412</v>
+        <v>111336403</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>625184.8249035137</v>
+        <v>625077.0981605061</v>
       </c>
       <c r="R7" t="n">
-        <v>7209765.975211025</v>
+        <v>7209815.690764531</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111336419</v>
+        <v>111336404</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>625180.6727454782</v>
+        <v>625133.9709027896</v>
       </c>
       <c r="R8" t="n">
-        <v>7209784.021863313</v>
+        <v>7209754.516890368</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111336417</v>
+        <v>111336407</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>625114.8910281583</v>
+        <v>625184.0874587877</v>
       </c>
       <c r="R9" t="n">
-        <v>7209835.074288641</v>
+        <v>7209753.231787121</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111336404</v>
+        <v>111336412</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>625133.9709027896</v>
+        <v>625184.8249035137</v>
       </c>
       <c r="R10" t="n">
-        <v>7209754.516890368</v>
+        <v>7209765.975211025</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111336415</v>
+        <v>111336416</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>625148.1990682605</v>
+        <v>625105.0111505401</v>
       </c>
       <c r="R11" t="n">
-        <v>7209799.60762905</v>
+        <v>7209827.879692691</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111336409</v>
+        <v>111336413</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>625220.7730415409</v>
+        <v>625162.5685057295</v>
       </c>
       <c r="R12" t="n">
-        <v>7209758.586850428</v>
+        <v>7209780.71893465</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111336413</v>
+        <v>111336419</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>625162.5685057295</v>
+        <v>625180.6727454782</v>
       </c>
       <c r="R13" t="n">
-        <v>7209780.71893465</v>
+        <v>7209784.021863313</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111336405</v>
+        <v>111336410</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>625163.9543035047</v>
+        <v>625259.9138955096</v>
       </c>
       <c r="R14" t="n">
-        <v>7209747.724855823</v>
+        <v>7209755.994336623</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111336411</v>
+        <v>111336415</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>625220.1037653659</v>
+        <v>625148.1990682605</v>
       </c>
       <c r="R15" t="n">
-        <v>7209754.321236268</v>
+        <v>7209799.60762905</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111336403</v>
+        <v>111336409</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>625077.0981605061</v>
+        <v>625220.7730415409</v>
       </c>
       <c r="R16" t="n">
-        <v>7209815.690764531</v>
+        <v>7209758.586850428</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111336407</v>
+        <v>111336405</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2479,10 +2479,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>625184.0874587877</v>
+        <v>625163.9543035047</v>
       </c>
       <c r="R17" t="n">
-        <v>7209753.231787121</v>
+        <v>7209747.724855823</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 20434-2022.xlsx
+++ b/artfynd/A 20434-2022.xlsx
@@ -797,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111336398</v>
+        <v>111336410</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>625080.5973707421</v>
+        <v>625259.9138955096</v>
       </c>
       <c r="R3" t="n">
-        <v>7209863.719748351</v>
+        <v>7209755.994336623</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111336417</v>
+        <v>111336409</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>625114.8910281583</v>
+        <v>625220.7730415409</v>
       </c>
       <c r="R4" t="n">
-        <v>7209835.074288641</v>
+        <v>7209758.586850428</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111336408</v>
+        <v>111336412</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>625192.9989858982</v>
+        <v>625184.8249035137</v>
       </c>
       <c r="R5" t="n">
-        <v>7209753.182408583</v>
+        <v>7209765.975211025</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111336411</v>
+        <v>111336416</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>625220.1037653659</v>
+        <v>625105.0111505401</v>
       </c>
       <c r="R6" t="n">
-        <v>7209754.321236268</v>
+        <v>7209827.879692691</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111336403</v>
+        <v>111336408</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>625077.0981605061</v>
+        <v>625192.9989858982</v>
       </c>
       <c r="R7" t="n">
-        <v>7209815.690764531</v>
+        <v>7209753.182408583</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111336404</v>
+        <v>111336403</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>625133.9709027896</v>
+        <v>625077.0981605061</v>
       </c>
       <c r="R8" t="n">
-        <v>7209754.516890368</v>
+        <v>7209815.690764531</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111336407</v>
+        <v>111336413</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>625184.0874587877</v>
+        <v>625162.5685057295</v>
       </c>
       <c r="R9" t="n">
-        <v>7209753.231787121</v>
+        <v>7209780.71893465</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111336412</v>
+        <v>111336407</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>625184.8249035137</v>
+        <v>625184.0874587877</v>
       </c>
       <c r="R10" t="n">
-        <v>7209765.975211025</v>
+        <v>7209753.231787121</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111336416</v>
+        <v>111336404</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>625105.0111505401</v>
+        <v>625133.9709027896</v>
       </c>
       <c r="R11" t="n">
-        <v>7209827.879692691</v>
+        <v>7209754.516890368</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111336413</v>
+        <v>111336398</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>625162.5685057295</v>
+        <v>625080.5973707421</v>
       </c>
       <c r="R12" t="n">
-        <v>7209780.71893465</v>
+        <v>7209863.719748351</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111336410</v>
+        <v>111336417</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>625259.9138955096</v>
+        <v>625114.8910281583</v>
       </c>
       <c r="R14" t="n">
-        <v>7209755.994336623</v>
+        <v>7209835.074288641</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111336415</v>
+        <v>111336411</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>625148.1990682605</v>
+        <v>625220.1037653659</v>
       </c>
       <c r="R15" t="n">
-        <v>7209799.60762905</v>
+        <v>7209754.321236268</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111336409</v>
+        <v>111336415</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>625220.7730415409</v>
+        <v>625148.1990682605</v>
       </c>
       <c r="R16" t="n">
-        <v>7209758.586850428</v>
+        <v>7209799.60762905</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
